--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.007599468546511</v>
+        <v>-1.051776313236694</v>
       </c>
       <c r="D2">
-        <v>0.313791969429047</v>
+        <v>0.3043183619633165</v>
       </c>
       <c r="E2">
         <v>2.740174974423968</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.301357926831932</v>
+        <v>-1.209121655653234</v>
       </c>
       <c r="D3">
-        <v>0.19331450743724</v>
+        <v>0.2394506238967216</v>
       </c>
       <c r="E3">
         <v>2.740174974423968</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.642411299176178</v>
+        <v>-1.335272563459644</v>
       </c>
       <c r="D4">
-        <v>0.1006920519786294</v>
+        <v>0.1954398540995492</v>
       </c>
       <c r="E4">
         <v>2.740174974423968</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.358519711159446</v>
+        <v>-1.168300679555073</v>
       </c>
       <c r="D5">
-        <v>0.1744813221419281</v>
+        <v>0.2551905367302996</v>
       </c>
       <c r="E5">
         <v>2.740174974423968</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.6723918883735399</v>
+        <v>-0.6953113875240868</v>
       </c>
       <c r="D6">
-        <v>0.5014267641144143</v>
+        <v>0.4941397186039669</v>
       </c>
       <c r="E6">
         <v>3.136931085744975</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.7616725328357253</v>
+        <v>-0.8234208044191134</v>
       </c>
       <c r="D7">
-        <v>0.4463624434850506</v>
+        <v>0.4191057862169671</v>
       </c>
       <c r="E7">
         <v>3.136931085744975</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7884490648342168</v>
+        <v>-0.8687441196471003</v>
       </c>
       <c r="D8">
-        <v>0.4305453864954023</v>
+        <v>0.3943659695397073</v>
       </c>
       <c r="E8">
         <v>3.136931085744975</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.181253054935048</v>
+        <v>0.1544654603758045</v>
       </c>
       <c r="D9">
-        <v>0.8561908292787797</v>
+        <v>0.8786510437444703</v>
       </c>
       <c r="E9">
         <v>3.576052774849094</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.144511408482198</v>
+        <v>-0.1632521045315588</v>
       </c>
       <c r="D10">
-        <v>0.8851139919783708</v>
+        <v>0.8718103136404594</v>
       </c>
       <c r="E10">
         <v>3.576052774849094</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2946064920063886</v>
+        <v>-0.3176263988856375</v>
       </c>
       <c r="D11">
-        <v>0.7683309220332395</v>
+        <v>0.7537633943134667</v>
       </c>
       <c r="E11">
         <v>3.469333427722923</v>
